--- a/Code/Results/Cases/Case_4_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.70198383502476</v>
+        <v>9.916623205318373</v>
       </c>
       <c r="C2">
-        <v>8.31574730483784</v>
+        <v>5.07897920462138</v>
       </c>
       <c r="D2">
-        <v>12.16500829084976</v>
+        <v>14.93946261057526</v>
       </c>
       <c r="E2">
-        <v>13.16163619731176</v>
+        <v>16.35167184383697</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.18544227043751</v>
+        <v>33.81191038979743</v>
       </c>
       <c r="H2">
-        <v>9.460876676546121</v>
+        <v>15.64677123867274</v>
       </c>
       <c r="I2">
-        <v>13.94116111096169</v>
+        <v>22.45997610142042</v>
       </c>
       <c r="J2">
-        <v>5.890586056495628</v>
+        <v>9.330680799534088</v>
       </c>
       <c r="K2">
-        <v>12.4366708084157</v>
+        <v>10.03002775146818</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.60608221273065</v>
+        <v>24.47319651619621</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.83585595260476</v>
+        <v>9.594904838512338</v>
       </c>
       <c r="C3">
-        <v>7.813881041878895</v>
+        <v>4.845612279250438</v>
       </c>
       <c r="D3">
-        <v>11.65566478977464</v>
+        <v>14.87473339026774</v>
       </c>
       <c r="E3">
-        <v>12.62037731665944</v>
+        <v>16.28694576143924</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.00811783388241</v>
+        <v>33.92431149510465</v>
       </c>
       <c r="H3">
-        <v>9.542972459345616</v>
+        <v>15.70092781821229</v>
       </c>
       <c r="I3">
-        <v>14.1567937358841</v>
+        <v>22.56479203947258</v>
       </c>
       <c r="J3">
-        <v>5.797433832742971</v>
+        <v>9.337108408962457</v>
       </c>
       <c r="K3">
-        <v>11.71707166177702</v>
+        <v>9.808224056255591</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.6701397121533</v>
+        <v>24.56439798213218</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.27353219487682</v>
+        <v>9.39281831168061</v>
       </c>
       <c r="C4">
-        <v>7.489011152638677</v>
+        <v>4.696649736166301</v>
       </c>
       <c r="D4">
-        <v>11.33891135509468</v>
+        <v>14.83819637284612</v>
       </c>
       <c r="E4">
-        <v>12.28442564879339</v>
+        <v>16.25074957583737</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.92834065894908</v>
+        <v>34.0034399210498</v>
       </c>
       <c r="H4">
-        <v>9.599377330002982</v>
+        <v>15.73665458199001</v>
       </c>
       <c r="I4">
-        <v>14.29956749383098</v>
+        <v>22.63340514714515</v>
       </c>
       <c r="J4">
-        <v>5.742543785718217</v>
+        <v>9.342437764196758</v>
       </c>
       <c r="K4">
-        <v>11.25192898353882</v>
+        <v>9.670548136542619</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.7233523645221</v>
+        <v>24.62548321906054</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.03670693127536</v>
+        <v>9.30944562326899</v>
       </c>
       <c r="C5">
-        <v>7.352440140608415</v>
+        <v>4.634594608660224</v>
       </c>
       <c r="D5">
-        <v>11.20901483936201</v>
+        <v>14.82412555506296</v>
       </c>
       <c r="E5">
-        <v>12.14681654275637</v>
+        <v>16.23690241849525</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.90289461886602</v>
+        <v>34.03821771822451</v>
       </c>
       <c r="H5">
-        <v>9.623817725292133</v>
+        <v>15.75183576862053</v>
       </c>
       <c r="I5">
-        <v>14.36025647886229</v>
+        <v>22.6624355331807</v>
       </c>
       <c r="J5">
-        <v>5.720766688962871</v>
+        <v>9.344957576531836</v>
       </c>
       <c r="K5">
-        <v>11.0565715532018</v>
+        <v>9.614144989235394</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.7483787842329</v>
+        <v>24.65165296675366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99691900980585</v>
+        <v>9.295543805378582</v>
       </c>
       <c r="C6">
-        <v>7.329510751339874</v>
+        <v>4.624211182958214</v>
       </c>
       <c r="D6">
-        <v>11.18740233270768</v>
+        <v>14.82183885689399</v>
       </c>
       <c r="E6">
-        <v>12.12393038049176</v>
+        <v>16.23465796448523</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.89908816146506</v>
+        <v>34.04414516245772</v>
       </c>
       <c r="H6">
-        <v>9.627962409315144</v>
+        <v>15.75439417599492</v>
       </c>
       <c r="I6">
-        <v>14.37048249196477</v>
+        <v>22.66732062799788</v>
       </c>
       <c r="J6">
-        <v>5.717186620442031</v>
+        <v>9.34539701972189</v>
       </c>
       <c r="K6">
-        <v>11.02378370100467</v>
+        <v>9.604763471851706</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.75273195063892</v>
+        <v>24.65607549745509</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.27036934979684</v>
+        <v>9.391697881016286</v>
       </c>
       <c r="C7">
-        <v>7.487186213375514</v>
+        <v>4.695818204321817</v>
       </c>
       <c r="D7">
-        <v>11.33716256252492</v>
+        <v>14.83800328064711</v>
       </c>
       <c r="E7">
-        <v>12.28257237829531</v>
+        <v>16.25055915741232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.92796923335476</v>
+        <v>34.00389870811155</v>
       </c>
       <c r="H7">
-        <v>9.599701118854339</v>
+        <v>15.73685680131514</v>
       </c>
       <c r="I7">
-        <v>14.30037594125482</v>
+        <v>22.63379232891306</v>
       </c>
       <c r="J7">
-        <v>5.742247685100396</v>
+        <v>9.342470337601377</v>
       </c>
       <c r="K7">
-        <v>11.24931775896283</v>
+        <v>9.669788573832593</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.72367654288697</v>
+        <v>24.62583098577174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.40967385091349</v>
+        <v>9.806709940076001</v>
       </c>
       <c r="C8">
-        <v>8.146183918596558</v>
+        <v>4.999733694737865</v>
       </c>
       <c r="D8">
-        <v>11.99032856289817</v>
+        <v>14.91648582144156</v>
       </c>
       <c r="E8">
-        <v>12.97587581006546</v>
+        <v>16.32862554243183</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.11811462186761</v>
+        <v>33.8485608447696</v>
       </c>
       <c r="H8">
-        <v>9.487905542787425</v>
+        <v>15.66493088331392</v>
       </c>
       <c r="I8">
-        <v>14.01329437772679</v>
+        <v>22.49523327602672</v>
       </c>
       <c r="J8">
-        <v>5.857995663736714</v>
+        <v>9.332610274173812</v>
       </c>
       <c r="K8">
-        <v>12.1934162333824</v>
+        <v>9.953902633683493</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.62519792255144</v>
+        <v>24.50358563399783</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.40220265492834</v>
+        <v>10.57954597372358</v>
       </c>
       <c r="C9">
-        <v>9.3053690794106</v>
+        <v>5.547920368872359</v>
       </c>
       <c r="D9">
-        <v>13.23201843741825</v>
+        <v>15.0952649069047</v>
       </c>
       <c r="E9">
-        <v>14.29898676833657</v>
+        <v>16.50929511609488</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.73210392652684</v>
+        <v>33.62465070646476</v>
       </c>
       <c r="H9">
-        <v>9.318804900944368</v>
+        <v>15.54351621238763</v>
       </c>
       <c r="I9">
-        <v>13.53766745386353</v>
+        <v>22.25729277612207</v>
       </c>
       <c r="J9">
-        <v>6.102740891415703</v>
+        <v>9.32422884767689</v>
       </c>
       <c r="K9">
-        <v>13.85841207715487</v>
+        <v>10.49611166325953</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.54899994265932</v>
+        <v>24.30432400477769</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.72007048997833</v>
+        <v>11.11651603146042</v>
       </c>
       <c r="C10">
-        <v>10.07588637587013</v>
+        <v>5.918486215111605</v>
       </c>
       <c r="D10">
-        <v>14.11222871951719</v>
+        <v>15.24094712271838</v>
       </c>
       <c r="E10">
-        <v>15.24013894574836</v>
+        <v>16.65803589254189</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.3424214004429</v>
+        <v>33.5099334485442</v>
       </c>
       <c r="H10">
-        <v>9.228862300793207</v>
+        <v>15.46627884738838</v>
       </c>
       <c r="I10">
-        <v>13.24917908698359</v>
+        <v>22.10307579441757</v>
       </c>
       <c r="J10">
-        <v>6.292654766738252</v>
+        <v>9.324721751895719</v>
       </c>
       <c r="K10">
-        <v>14.96709959833179</v>
+        <v>10.8814184966874</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.57371057926782</v>
+        <v>24.1827230629198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28828936334913</v>
+        <v>11.35306701689855</v>
       </c>
       <c r="C11">
-        <v>10.4089298408125</v>
+        <v>6.07959224229772</v>
       </c>
       <c r="D11">
-        <v>14.50440825750194</v>
+        <v>15.31013782589491</v>
       </c>
       <c r="E11">
-        <v>15.660197126453</v>
+        <v>16.72898319803684</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.65675409200209</v>
+        <v>33.46866829274749</v>
       </c>
       <c r="H11">
-        <v>9.196273575726552</v>
+        <v>15.43373967982484</v>
       </c>
       <c r="I11">
-        <v>13.13310203843244</v>
+        <v>22.03739405910819</v>
       </c>
       <c r="J11">
-        <v>6.381091909615824</v>
+        <v>9.32638256615434</v>
       </c>
       <c r="K11">
-        <v>15.44660971897894</v>
+        <v>11.0531123846319</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.60451817984129</v>
+        <v>24.1328152252965</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.49899798623628</v>
+        <v>11.44145880960068</v>
       </c>
       <c r="C12">
-        <v>10.53254948828036</v>
+        <v>6.139493496866756</v>
       </c>
       <c r="D12">
-        <v>14.65165191847231</v>
+        <v>15.33674052035658</v>
       </c>
       <c r="E12">
-        <v>15.81801447945853</v>
+        <v>16.75630367554226</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.78119998449847</v>
+        <v>33.45462046243342</v>
       </c>
       <c r="H12">
-        <v>9.185208799957964</v>
+        <v>15.42179138058845</v>
       </c>
       <c r="I12">
-        <v>13.09150607210086</v>
+        <v>22.01316569176253</v>
       </c>
       <c r="J12">
-        <v>6.414862581885668</v>
+        <v>9.327217230888097</v>
       </c>
       <c r="K12">
-        <v>15.62462785815953</v>
+        <v>11.11755541289255</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.61916611097376</v>
+        <v>24.11469646529377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.45381602322134</v>
+        <v>11.42247585725872</v>
       </c>
       <c r="C13">
-        <v>10.50603653641752</v>
+        <v>6.12664234257289</v>
       </c>
       <c r="D13">
-        <v>14.61999778783605</v>
+        <v>15.33099358497178</v>
       </c>
       <c r="E13">
-        <v>15.78408245033892</v>
+        <v>16.75039981326657</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.75415553223666</v>
+        <v>33.45757559544602</v>
       </c>
       <c r="H13">
-        <v>9.1875337564598</v>
+        <v>15.42434804231115</v>
       </c>
       <c r="I13">
-        <v>13.10035650871403</v>
+        <v>22.01835505469179</v>
       </c>
       <c r="J13">
-        <v>6.407577132648458</v>
+        <v>9.327028334341769</v>
       </c>
       <c r="K13">
-        <v>15.58644665440152</v>
+        <v>11.10370285370768</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.61587613285656</v>
+        <v>24.11856392412906</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30571372692471</v>
+        <v>11.36036320919657</v>
       </c>
       <c r="C14">
-        <v>10.41915003784572</v>
+        <v>6.084542688811675</v>
       </c>
       <c r="D14">
-        <v>14.51654786362944</v>
+        <v>15.31231850150907</v>
       </c>
       <c r="E14">
-        <v>15.67320633055485</v>
+        <v>16.73122187187854</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.66688309235313</v>
+        <v>33.46748089287138</v>
       </c>
       <c r="H14">
-        <v>9.195337234543629</v>
+        <v>15.43274919780854</v>
       </c>
       <c r="I14">
-        <v>13.12963152772233</v>
+        <v>22.0353878678614</v>
       </c>
       <c r="J14">
-        <v>6.383864670087891</v>
+        <v>9.326447116076217</v>
       </c>
       <c r="K14">
-        <v>15.4613266839465</v>
+        <v>11.05842596858027</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.60566255444882</v>
+        <v>24.13130893275411</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21441663170972</v>
+        <v>11.32216102967327</v>
       </c>
       <c r="C15">
-        <v>10.36560493491202</v>
+        <v>6.058610519472845</v>
       </c>
       <c r="D15">
-        <v>14.4530147775953</v>
+        <v>15.30093123480291</v>
       </c>
       <c r="E15">
-        <v>15.6051265083959</v>
+        <v>16.71953344042549</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.61413511755306</v>
+        <v>33.47375395116649</v>
       </c>
       <c r="H15">
-        <v>9.200285649944027</v>
+        <v>15.43794380513729</v>
       </c>
       <c r="I15">
-        <v>13.14787627388713</v>
+        <v>22.045904833535</v>
       </c>
       <c r="J15">
-        <v>6.369376402785804</v>
+        <v>9.326117871607352</v>
       </c>
       <c r="K15">
-        <v>15.38422363042823</v>
+        <v>11.03061619506196</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.59979973472051</v>
+        <v>24.13921730225652</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.68230942119637</v>
+        <v>11.1008949344097</v>
       </c>
       <c r="C16">
-        <v>10.05377089366292</v>
+        <v>5.90780441327622</v>
       </c>
       <c r="D16">
-        <v>14.08642572542023</v>
+        <v>15.23648255800212</v>
       </c>
       <c r="E16">
-        <v>15.21251662774557</v>
+        <v>16.65346388770912</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.32262973915482</v>
+        <v>33.51285067633727</v>
       </c>
       <c r="H16">
-        <v>9.231166216058789</v>
+        <v>15.46845762392223</v>
       </c>
       <c r="I16">
-        <v>13.25708504939465</v>
+        <v>22.10745830923412</v>
       </c>
       <c r="J16">
-        <v>6.286915232476392</v>
+        <v>9.3246420529545</v>
       </c>
       <c r="K16">
-        <v>14.93526334867033</v>
+        <v>10.87012069263906</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.57210534252411</v>
+        <v>24.18609371119726</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.34788958909822</v>
+        <v>10.96312217218323</v>
       </c>
       <c r="C17">
-        <v>9.858006118790895</v>
+        <v>5.813352548852489</v>
       </c>
       <c r="D17">
-        <v>13.85936194171094</v>
+        <v>15.19768040328979</v>
       </c>
       <c r="E17">
-        <v>14.96952527369872</v>
+        <v>16.61376100639956</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.15330462111655</v>
+        <v>33.5396382044386</v>
       </c>
       <c r="H17">
-        <v>9.252297584401353</v>
+        <v>15.48784203102628</v>
       </c>
       <c r="I17">
-        <v>13.32808656204987</v>
+        <v>22.14636537278788</v>
       </c>
       <c r="J17">
-        <v>6.236842329424388</v>
+        <v>9.324104071819143</v>
       </c>
       <c r="K17">
-        <v>14.65348379582144</v>
+        <v>10.77070107312946</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.56024695546188</v>
+        <v>24.21623800968539</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.15259297487588</v>
+        <v>10.88315624257863</v>
       </c>
       <c r="C18">
-        <v>9.743761946477576</v>
+        <v>5.758325128840708</v>
       </c>
       <c r="D18">
-        <v>13.72798964481484</v>
+        <v>15.17563832420375</v>
       </c>
       <c r="E18">
-        <v>14.8290067858484</v>
+        <v>16.5912352330007</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.05936052539474</v>
+        <v>33.55607312226433</v>
       </c>
       <c r="H18">
-        <v>9.265230566579328</v>
+        <v>15.49923581106061</v>
       </c>
       <c r="I18">
-        <v>13.37033972610727</v>
+        <v>22.1691645957135</v>
       </c>
       <c r="J18">
-        <v>6.208234840257862</v>
+        <v>9.323929913694361</v>
       </c>
       <c r="K18">
-        <v>14.48907275385252</v>
+        <v>10.7131834016896</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.55525797821869</v>
+        <v>24.23408519474227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.08596171195753</v>
+        <v>10.85595945629402</v>
       </c>
       <c r="C19">
-        <v>9.704797831429433</v>
+        <v>5.739574439669045</v>
       </c>
       <c r="D19">
-        <v>13.68337961003078</v>
+        <v>15.16822317931011</v>
       </c>
       <c r="E19">
-        <v>14.78130277080129</v>
+        <v>16.58366221863687</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.02814016871093</v>
+        <v>33.56181390751075</v>
       </c>
       <c r="H19">
-        <v>9.269740886361051</v>
+        <v>15.50313551595457</v>
       </c>
       <c r="I19">
-        <v>13.38488371326932</v>
+        <v>22.1769562900521</v>
       </c>
       <c r="J19">
-        <v>6.198582404358309</v>
+        <v>9.323894203933344</v>
       </c>
       <c r="K19">
-        <v>14.4330041200891</v>
+        <v>10.69365336506812</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.55387825442599</v>
+        <v>24.24021528779035</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.38379392984614</v>
+        <v>10.97786368257189</v>
       </c>
       <c r="C20">
-        <v>9.879015814344422</v>
+        <v>5.823479936176527</v>
       </c>
       <c r="D20">
-        <v>13.88361374419002</v>
+        <v>15.20178253366849</v>
       </c>
       <c r="E20">
-        <v>14.99547109477961</v>
+        <v>16.61795546167762</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.17097172450103</v>
+        <v>33.5366802290295</v>
       </c>
       <c r="H20">
-        <v>9.249966958663872</v>
+        <v>15.48575323374107</v>
       </c>
       <c r="I20">
-        <v>13.32038063106037</v>
+        <v>22.14218008157892</v>
       </c>
       <c r="J20">
-        <v>6.242152782628215</v>
+        <v>9.324147346137421</v>
       </c>
       <c r="K20">
-        <v>14.68372173041748</v>
+        <v>10.78131947913143</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.56131851239233</v>
+        <v>24.21297640205574</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.34933579770551</v>
+        <v>11.37863991264248</v>
       </c>
       <c r="C21">
-        <v>10.44473832449945</v>
+        <v>6.096938628257783</v>
       </c>
       <c r="D21">
-        <v>14.54696854157466</v>
+        <v>15.31779307249544</v>
       </c>
       <c r="E21">
-        <v>15.7058078487473</v>
+        <v>16.73684271683057</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.69236916947579</v>
+        <v>33.46452856984929</v>
       </c>
       <c r="H21">
-        <v>9.193009889981155</v>
+        <v>15.4302714343382</v>
       </c>
       <c r="I21">
-        <v>13.12096718177459</v>
+        <v>22.03036743667444</v>
       </c>
       <c r="J21">
-        <v>6.390822050732435</v>
+        <v>9.326612257055071</v>
       </c>
       <c r="K21">
-        <v>15.4981740093483</v>
+        <v>11.07174090168862</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.60858026940185</v>
+        <v>24.12754421970693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.95437567384256</v>
+        <v>11.63363483688774</v>
       </c>
       <c r="C22">
-        <v>10.7999281836249</v>
+        <v>6.26920116833556</v>
       </c>
       <c r="D22">
-        <v>14.97310368540309</v>
+        <v>15.39594507463527</v>
       </c>
       <c r="E22">
-        <v>16.16274387773543</v>
+        <v>16.81718136120792</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.06474442633381</v>
+        <v>33.4265764794726</v>
       </c>
       <c r="H22">
-        <v>9.163261409632581</v>
+        <v>15.39618846673385</v>
       </c>
       <c r="I22">
-        <v>13.00448948158689</v>
+        <v>21.96104482960736</v>
       </c>
       <c r="J22">
-        <v>6.489621613120364</v>
+        <v>9.329422036189687</v>
       </c>
       <c r="K22">
-        <v>16.00971338311853</v>
+        <v>11.25817993996536</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.656925917119</v>
+        <v>24.07625836435082</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.63382052366194</v>
+        <v>11.49819640257139</v>
       </c>
       <c r="C23">
-        <v>10.6116811517332</v>
+        <v>6.177861695951303</v>
       </c>
       <c r="D23">
-        <v>14.74636732221439</v>
+        <v>15.35402661951438</v>
       </c>
       <c r="E23">
-        <v>15.91956128708548</v>
+        <v>16.77406780340419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.86306802337571</v>
+        <v>33.44598768937704</v>
       </c>
       <c r="H23">
-        <v>9.178427586939948</v>
+        <v>15.4141798680814</v>
       </c>
       <c r="I23">
-        <v>13.06532472956587</v>
+        <v>21.99769990530669</v>
       </c>
       <c r="J23">
-        <v>6.436744580889926</v>
+        <v>9.327813011491557</v>
       </c>
       <c r="K23">
-        <v>15.73858900261654</v>
+        <v>11.15900027651544</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.62947025080948</v>
+        <v>24.10321356380751</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.36757103086987</v>
+        <v>10.97120140261073</v>
       </c>
       <c r="C24">
-        <v>9.869522615986465</v>
+        <v>5.818903602513646</v>
       </c>
       <c r="D24">
-        <v>13.87265208403195</v>
+        <v>15.19992713123759</v>
       </c>
       <c r="E24">
-        <v>14.98374353477474</v>
+        <v>16.61605821281285</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.16297383764139</v>
+        <v>33.53801430818323</v>
       </c>
       <c r="H24">
-        <v>9.251018197603118</v>
+        <v>15.4866968020464</v>
       </c>
       <c r="I24">
-        <v>13.32386003102955</v>
+        <v>22.14407090912566</v>
       </c>
       <c r="J24">
-        <v>6.239751364826821</v>
+        <v>9.324127360827548</v>
       </c>
       <c r="K24">
-        <v>14.67005867437379</v>
+        <v>10.77652001464104</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.56082837867095</v>
+        <v>24.21444936514543</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.88893421887095</v>
+        <v>10.37550461830322</v>
       </c>
       <c r="C25">
-        <v>9.006053576204282</v>
+        <v>5.405085535879191</v>
       </c>
       <c r="D25">
-        <v>12.90123071733177</v>
+        <v>15.04431940957542</v>
       </c>
       <c r="E25">
-        <v>13.94594095481013</v>
+        <v>16.45754612330666</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.53883468283361</v>
+        <v>33.67652058491199</v>
       </c>
       <c r="H25">
-        <v>9.358812878289569</v>
+        <v>15.57426063273795</v>
       </c>
       <c r="I25">
-        <v>13.65623775136814</v>
+        <v>22.31804561025305</v>
       </c>
       <c r="J25">
-        <v>6.034703678375978</v>
+        <v>9.325325974450042</v>
       </c>
       <c r="K25">
-        <v>13.42808394395079</v>
+        <v>10.35145139510756</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.5561308915807</v>
+        <v>24.35388428864547</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.916623205318373</v>
+        <v>13.70198383502474</v>
       </c>
       <c r="C2">
-        <v>5.07897920462138</v>
+        <v>8.315747304837771</v>
       </c>
       <c r="D2">
-        <v>14.93946261057526</v>
+        <v>12.16500829084982</v>
       </c>
       <c r="E2">
-        <v>16.35167184383697</v>
+        <v>13.16163619731184</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>33.81191038979743</v>
+        <v>24.18544227043773</v>
       </c>
       <c r="H2">
-        <v>15.64677123867274</v>
+        <v>9.460876676546206</v>
       </c>
       <c r="I2">
-        <v>22.45997610142042</v>
+        <v>13.94116111096183</v>
       </c>
       <c r="J2">
-        <v>9.330680799534088</v>
+        <v>5.890586056495687</v>
       </c>
       <c r="K2">
-        <v>10.03002775146818</v>
+        <v>12.43667080841564</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.47319651619621</v>
+        <v>15.60608221273085</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.594904838512338</v>
+        <v>12.8358559526048</v>
       </c>
       <c r="C3">
-        <v>4.845612279250438</v>
+        <v>7.813881041878747</v>
       </c>
       <c r="D3">
-        <v>14.87473339026774</v>
+        <v>11.65566478977464</v>
       </c>
       <c r="E3">
-        <v>16.28694576143924</v>
+        <v>12.62037731665947</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.92431149510465</v>
+        <v>24.00811783388221</v>
       </c>
       <c r="H3">
-        <v>15.70092781821229</v>
+        <v>9.542972459345563</v>
       </c>
       <c r="I3">
-        <v>22.56479203947258</v>
+        <v>14.15679373588391</v>
       </c>
       <c r="J3">
-        <v>9.337108408962457</v>
+        <v>5.797433832743001</v>
       </c>
       <c r="K3">
-        <v>9.808224056255591</v>
+        <v>11.71707166177702</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.56439798213218</v>
+        <v>15.67013971215322</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.39281831168061</v>
+        <v>12.27353219487675</v>
       </c>
       <c r="C4">
-        <v>4.696649736166301</v>
+        <v>7.489011152638679</v>
       </c>
       <c r="D4">
-        <v>14.83819637284612</v>
+        <v>11.33891135509468</v>
       </c>
       <c r="E4">
-        <v>16.25074957583737</v>
+        <v>12.28442564879342</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.0034399210498</v>
+        <v>23.92834065894922</v>
       </c>
       <c r="H4">
-        <v>15.73665458199001</v>
+        <v>9.599377330003165</v>
       </c>
       <c r="I4">
-        <v>22.63340514714515</v>
+        <v>14.29956749383116</v>
       </c>
       <c r="J4">
-        <v>9.342437764196758</v>
+        <v>5.74254378571819</v>
       </c>
       <c r="K4">
-        <v>9.670548136542619</v>
+        <v>11.25192898353875</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.62548321906054</v>
+        <v>15.72335236452226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.30944562326899</v>
+        <v>12.0367069312754</v>
       </c>
       <c r="C5">
-        <v>4.634594608660224</v>
+        <v>7.352440140608508</v>
       </c>
       <c r="D5">
-        <v>14.82412555506296</v>
+        <v>11.20901483936204</v>
       </c>
       <c r="E5">
-        <v>16.23690241849525</v>
+        <v>12.14681654275637</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.03821771822451</v>
+        <v>23.9028946188656</v>
       </c>
       <c r="H5">
-        <v>15.75183576862053</v>
+        <v>9.623817725292074</v>
       </c>
       <c r="I5">
-        <v>22.6624355331807</v>
+        <v>14.36025647886213</v>
       </c>
       <c r="J5">
-        <v>9.344957576531836</v>
+        <v>5.720766688962848</v>
       </c>
       <c r="K5">
-        <v>9.614144989235394</v>
+        <v>11.05657155320188</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.65165296675366</v>
+        <v>15.74837878423269</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.295543805378582</v>
+        <v>11.99691900980595</v>
       </c>
       <c r="C6">
-        <v>4.624211182958214</v>
+        <v>7.329510751339587</v>
       </c>
       <c r="D6">
-        <v>14.82183885689399</v>
+        <v>11.18740233270773</v>
       </c>
       <c r="E6">
-        <v>16.23465796448523</v>
+        <v>12.12393038049187</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.04414516245772</v>
+        <v>23.89908816146519</v>
       </c>
       <c r="H6">
-        <v>15.75439417599492</v>
+        <v>9.627962409315151</v>
       </c>
       <c r="I6">
-        <v>22.66732062799788</v>
+        <v>14.37048249196472</v>
       </c>
       <c r="J6">
-        <v>9.34539701972189</v>
+        <v>5.71718662044208</v>
       </c>
       <c r="K6">
-        <v>9.604763471851706</v>
+        <v>11.02378370100465</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.65607549745509</v>
+        <v>15.75273195063902</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.391697881016286</v>
+        <v>12.2703693497969</v>
       </c>
       <c r="C7">
-        <v>4.695818204321817</v>
+        <v>7.48718621337547</v>
       </c>
       <c r="D7">
-        <v>14.83800328064711</v>
+        <v>11.33716256252485</v>
       </c>
       <c r="E7">
-        <v>16.25055915741232</v>
+        <v>12.28257237829531</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.00389870811155</v>
+        <v>23.92796923335448</v>
       </c>
       <c r="H7">
-        <v>15.73685680131514</v>
+        <v>9.599701118854293</v>
       </c>
       <c r="I7">
-        <v>22.63379232891306</v>
+        <v>14.30037594125464</v>
       </c>
       <c r="J7">
-        <v>9.342470337601377</v>
+        <v>5.742247685100425</v>
       </c>
       <c r="K7">
-        <v>9.669788573832593</v>
+        <v>11.2493177589629</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.62583098577174</v>
+        <v>15.72367654288679</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.806709940076001</v>
+        <v>13.40967385091354</v>
       </c>
       <c r="C8">
-        <v>4.999733694737865</v>
+        <v>8.146183918596526</v>
       </c>
       <c r="D8">
-        <v>14.91648582144156</v>
+        <v>11.99032856289823</v>
       </c>
       <c r="E8">
-        <v>16.32862554243183</v>
+        <v>12.97587581006546</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.8485608447696</v>
+        <v>24.11811462186762</v>
       </c>
       <c r="H8">
-        <v>15.66493088331392</v>
+        <v>9.487905542787429</v>
       </c>
       <c r="I8">
-        <v>22.49523327602672</v>
+        <v>14.0132943777268</v>
       </c>
       <c r="J8">
-        <v>9.332610274173812</v>
+        <v>5.857995663736667</v>
       </c>
       <c r="K8">
-        <v>9.953902633683493</v>
+        <v>12.19341623338242</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.50358563399783</v>
+        <v>15.62519792255144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.57954597372358</v>
+        <v>15.40220265492833</v>
       </c>
       <c r="C9">
-        <v>5.547920368872359</v>
+        <v>9.305369079410553</v>
       </c>
       <c r="D9">
-        <v>15.0952649069047</v>
+        <v>13.23201843741831</v>
       </c>
       <c r="E9">
-        <v>16.50929511609488</v>
+        <v>14.29898676833658</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>33.62465070646476</v>
+        <v>24.73210392652702</v>
       </c>
       <c r="H9">
-        <v>15.54351621238763</v>
+        <v>9.31880490094443</v>
       </c>
       <c r="I9">
-        <v>22.25729277612207</v>
+        <v>13.53766745386356</v>
       </c>
       <c r="J9">
-        <v>9.32422884767689</v>
+        <v>6.102740891415658</v>
       </c>
       <c r="K9">
-        <v>10.49611166325953</v>
+        <v>13.85841207715485</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.30432400477769</v>
+        <v>15.5489999426594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.11651603146042</v>
+        <v>16.72007048997842</v>
       </c>
       <c r="C10">
-        <v>5.918486215111605</v>
+        <v>10.07588637587013</v>
       </c>
       <c r="D10">
-        <v>15.24094712271838</v>
+        <v>14.11222871951714</v>
       </c>
       <c r="E10">
-        <v>16.65803589254189</v>
+        <v>15.24013894574835</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>33.5099334485442</v>
+        <v>25.34242140044275</v>
       </c>
       <c r="H10">
-        <v>15.46627884738838</v>
+        <v>9.228862300793114</v>
       </c>
       <c r="I10">
-        <v>22.10307579441757</v>
+        <v>13.24917908698345</v>
       </c>
       <c r="J10">
-        <v>9.324721751895719</v>
+        <v>6.292654766738266</v>
       </c>
       <c r="K10">
-        <v>10.8814184966874</v>
+        <v>14.96709959833184</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.1827230629198</v>
+        <v>15.57371057926771</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.35306701689855</v>
+        <v>17.2882893633492</v>
       </c>
       <c r="C11">
-        <v>6.07959224229772</v>
+        <v>10.40892984081244</v>
       </c>
       <c r="D11">
-        <v>15.31013782589491</v>
+        <v>14.50440825750191</v>
       </c>
       <c r="E11">
-        <v>16.72898319803684</v>
+        <v>15.660197126453</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>33.46866829274749</v>
+        <v>25.65675409200188</v>
       </c>
       <c r="H11">
-        <v>15.43373967982484</v>
+        <v>9.196273575726515</v>
       </c>
       <c r="I11">
-        <v>22.03739405910819</v>
+        <v>13.13310203843226</v>
       </c>
       <c r="J11">
-        <v>9.32638256615434</v>
+        <v>6.381091909615817</v>
       </c>
       <c r="K11">
-        <v>11.0531123846319</v>
+        <v>15.44660971897894</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.1328152252965</v>
+        <v>15.60451817984116</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.44145880960068</v>
+        <v>17.49899798623628</v>
       </c>
       <c r="C12">
-        <v>6.139493496866756</v>
+        <v>10.53254948828047</v>
       </c>
       <c r="D12">
-        <v>15.33674052035658</v>
+        <v>14.65165191847232</v>
       </c>
       <c r="E12">
-        <v>16.75630367554226</v>
+        <v>15.81801447945855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>33.45462046243342</v>
+        <v>25.7811999844985</v>
       </c>
       <c r="H12">
-        <v>15.42179138058845</v>
+        <v>9.18520879995803</v>
       </c>
       <c r="I12">
-        <v>22.01316569176253</v>
+        <v>13.09150607210095</v>
       </c>
       <c r="J12">
-        <v>9.327217230888097</v>
+        <v>6.414862581885686</v>
       </c>
       <c r="K12">
-        <v>11.11755541289255</v>
+        <v>15.62462785815955</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.11469646529377</v>
+        <v>15.6191661109738</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.42247585725872</v>
+        <v>17.4538160232213</v>
       </c>
       <c r="C13">
-        <v>6.12664234257289</v>
+        <v>10.5060365364175</v>
       </c>
       <c r="D13">
-        <v>15.33099358497178</v>
+        <v>14.61999778783606</v>
       </c>
       <c r="E13">
-        <v>16.75039981326657</v>
+        <v>15.78408245033894</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>33.45757559544602</v>
+        <v>25.75415553223676</v>
       </c>
       <c r="H13">
-        <v>15.42434804231115</v>
+        <v>9.187533756459947</v>
       </c>
       <c r="I13">
-        <v>22.01835505469179</v>
+        <v>13.10035650871418</v>
       </c>
       <c r="J13">
-        <v>9.327028334341769</v>
+        <v>6.407577132648484</v>
       </c>
       <c r="K13">
-        <v>11.10370285370768</v>
+        <v>15.58644665440149</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.11856392412906</v>
+        <v>15.61587613285667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.36036320919657</v>
+        <v>17.30571372692469</v>
       </c>
       <c r="C14">
-        <v>6.084542688811675</v>
+        <v>10.41915003784576</v>
       </c>
       <c r="D14">
-        <v>15.31231850150907</v>
+        <v>14.51654786362944</v>
       </c>
       <c r="E14">
-        <v>16.73122187187854</v>
+        <v>15.67320633055483</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>33.46748089287138</v>
+        <v>25.66688309235336</v>
       </c>
       <c r="H14">
-        <v>15.43274919780854</v>
+        <v>9.195337234543688</v>
       </c>
       <c r="I14">
-        <v>22.0353878678614</v>
+        <v>13.12963152772247</v>
       </c>
       <c r="J14">
-        <v>9.326447116076217</v>
+        <v>6.38386467008792</v>
       </c>
       <c r="K14">
-        <v>11.05842596858027</v>
+        <v>15.46132668394648</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.13130893275411</v>
+        <v>15.60566255444892</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.32216102967327</v>
+        <v>17.21441663170962</v>
       </c>
       <c r="C15">
-        <v>6.058610519472845</v>
+        <v>10.365604934912</v>
       </c>
       <c r="D15">
-        <v>15.30093123480291</v>
+        <v>14.45301477759531</v>
       </c>
       <c r="E15">
-        <v>16.71953344042549</v>
+        <v>15.60512650839593</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>33.47375395116649</v>
+        <v>25.61413511755319</v>
       </c>
       <c r="H15">
-        <v>15.43794380513729</v>
+        <v>9.200285649944036</v>
       </c>
       <c r="I15">
-        <v>22.045904833535</v>
+        <v>13.14787627388721</v>
       </c>
       <c r="J15">
-        <v>9.326117871607352</v>
+        <v>6.369376402785845</v>
       </c>
       <c r="K15">
-        <v>11.03061619506196</v>
+        <v>15.38422363042815</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.13921730225652</v>
+        <v>15.59979973472058</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.1008949344097</v>
+        <v>16.68230942119636</v>
       </c>
       <c r="C16">
-        <v>5.90780441327622</v>
+        <v>10.05377089366293</v>
       </c>
       <c r="D16">
-        <v>15.23648255800212</v>
+        <v>14.08642572542025</v>
       </c>
       <c r="E16">
-        <v>16.65346388770912</v>
+        <v>15.21251662774558</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>33.51285067633727</v>
+        <v>25.32262973915483</v>
       </c>
       <c r="H16">
-        <v>15.46845762392223</v>
+        <v>9.231166216058819</v>
       </c>
       <c r="I16">
-        <v>22.10745830923412</v>
+        <v>13.25708504939461</v>
       </c>
       <c r="J16">
-        <v>9.3246420529545</v>
+        <v>6.28691523247641</v>
       </c>
       <c r="K16">
-        <v>10.87012069263906</v>
+        <v>14.93526334867033</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.18609371119726</v>
+        <v>15.57210534252412</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.96312217218323</v>
+        <v>16.34788958909827</v>
       </c>
       <c r="C17">
-        <v>5.813352548852489</v>
+        <v>9.858006118790929</v>
       </c>
       <c r="D17">
-        <v>15.19768040328979</v>
+        <v>13.859361941711</v>
       </c>
       <c r="E17">
-        <v>16.61376100639956</v>
+        <v>14.96952527369877</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>33.5396382044386</v>
+        <v>25.15330462111631</v>
       </c>
       <c r="H17">
-        <v>15.48784203102628</v>
+        <v>9.252297584401308</v>
       </c>
       <c r="I17">
-        <v>22.14636537278788</v>
+        <v>13.32808656204967</v>
       </c>
       <c r="J17">
-        <v>9.324104071819143</v>
+        <v>6.236842329424459</v>
       </c>
       <c r="K17">
-        <v>10.77070107312946</v>
+        <v>14.65348379582151</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.21623800968539</v>
+        <v>15.56024695546173</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.88315624257863</v>
+        <v>16.15259297487583</v>
       </c>
       <c r="C18">
-        <v>5.758325128840708</v>
+        <v>9.743761946477491</v>
       </c>
       <c r="D18">
-        <v>15.17563832420375</v>
+        <v>13.72798964481494</v>
       </c>
       <c r="E18">
-        <v>16.5912352330007</v>
+        <v>14.82900678584842</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>33.55607312226433</v>
+        <v>25.05936052539486</v>
       </c>
       <c r="H18">
-        <v>15.49923581106061</v>
+        <v>9.265230566579438</v>
       </c>
       <c r="I18">
-        <v>22.1691645957135</v>
+        <v>13.37033972610745</v>
       </c>
       <c r="J18">
-        <v>9.323929913694361</v>
+        <v>6.208234840257798</v>
       </c>
       <c r="K18">
-        <v>10.7131834016896</v>
+        <v>14.48907275385249</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.23408519474227</v>
+        <v>15.55525797821883</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.85595945629402</v>
+        <v>16.08596171195756</v>
       </c>
       <c r="C19">
-        <v>5.739574439669045</v>
+        <v>9.70479783142923</v>
       </c>
       <c r="D19">
-        <v>15.16822317931011</v>
+        <v>13.68337961003084</v>
       </c>
       <c r="E19">
-        <v>16.58366221863687</v>
+        <v>14.78130277080134</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>33.56181390751075</v>
+        <v>25.0281401687111</v>
       </c>
       <c r="H19">
-        <v>15.50313551595457</v>
+        <v>9.269740886361062</v>
       </c>
       <c r="I19">
-        <v>22.1769562900521</v>
+        <v>13.38488371326933</v>
       </c>
       <c r="J19">
-        <v>9.323894203933344</v>
+        <v>6.198582404358296</v>
       </c>
       <c r="K19">
-        <v>10.69365336506812</v>
+        <v>14.43300412008908</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.24021528779035</v>
+        <v>15.55387825442607</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.97786368257189</v>
+        <v>16.38379392984616</v>
       </c>
       <c r="C20">
-        <v>5.823479936176527</v>
+        <v>9.879015814344305</v>
       </c>
       <c r="D20">
-        <v>15.20178253366849</v>
+        <v>13.88361374419001</v>
       </c>
       <c r="E20">
-        <v>16.61795546167762</v>
+        <v>14.99547109477961</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>33.5366802290295</v>
+        <v>25.17097172450097</v>
       </c>
       <c r="H20">
-        <v>15.48575323374107</v>
+        <v>9.249966958663862</v>
       </c>
       <c r="I20">
-        <v>22.14218008157892</v>
+        <v>13.32038063106029</v>
       </c>
       <c r="J20">
-        <v>9.324147346137421</v>
+        <v>6.242152782628258</v>
       </c>
       <c r="K20">
-        <v>10.78131947913143</v>
+        <v>14.68372173041744</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.21297640205574</v>
+        <v>15.5613185123923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.37863991264248</v>
+        <v>17.34933579770549</v>
       </c>
       <c r="C21">
-        <v>6.096938628257783</v>
+        <v>10.4447383244996</v>
       </c>
       <c r="D21">
-        <v>15.31779307249544</v>
+        <v>14.54696854157468</v>
       </c>
       <c r="E21">
-        <v>16.73684271683057</v>
+        <v>15.70580784874729</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33.46452856984929</v>
+        <v>25.69236916947575</v>
       </c>
       <c r="H21">
-        <v>15.4302714343382</v>
+        <v>9.193009889981125</v>
       </c>
       <c r="I21">
-        <v>22.03036743667444</v>
+        <v>13.12096718177461</v>
       </c>
       <c r="J21">
-        <v>9.326612257055071</v>
+        <v>6.390822050732452</v>
       </c>
       <c r="K21">
-        <v>11.07174090168862</v>
+        <v>15.49817400934833</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.12754421970693</v>
+        <v>15.60858026940179</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.63363483688774</v>
+        <v>17.95437567384254</v>
       </c>
       <c r="C22">
-        <v>6.26920116833556</v>
+        <v>10.79992818362496</v>
       </c>
       <c r="D22">
-        <v>15.39594507463527</v>
+        <v>14.97310368540312</v>
       </c>
       <c r="E22">
-        <v>16.81718136120792</v>
+        <v>16.16274387773544</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33.4265764794726</v>
+        <v>26.06474442633381</v>
       </c>
       <c r="H22">
-        <v>15.39618846673385</v>
+        <v>9.163261409632581</v>
       </c>
       <c r="I22">
-        <v>21.96104482960736</v>
+        <v>13.00448948158683</v>
       </c>
       <c r="J22">
-        <v>9.329422036189687</v>
+        <v>6.489621613120365</v>
       </c>
       <c r="K22">
-        <v>11.25817993996536</v>
+        <v>16.00971338311852</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.07625836435082</v>
+        <v>15.65692591711897</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.49819640257139</v>
+        <v>17.63382052366191</v>
       </c>
       <c r="C23">
-        <v>6.177861695951303</v>
+        <v>10.6116811517333</v>
       </c>
       <c r="D23">
-        <v>15.35402661951438</v>
+        <v>14.7463673222144</v>
       </c>
       <c r="E23">
-        <v>16.77406780340419</v>
+        <v>15.91956128708547</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33.44598768937704</v>
+        <v>25.86306802337576</v>
       </c>
       <c r="H23">
-        <v>15.4141798680814</v>
+        <v>9.178427586939989</v>
       </c>
       <c r="I23">
-        <v>21.99769990530669</v>
+        <v>13.06532472956596</v>
       </c>
       <c r="J23">
-        <v>9.327813011491557</v>
+        <v>6.43674458088991</v>
       </c>
       <c r="K23">
-        <v>11.15900027651544</v>
+        <v>15.73858900261653</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.10321356380751</v>
+        <v>15.6294702508095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.97120140261073</v>
+        <v>16.36757103086988</v>
       </c>
       <c r="C24">
-        <v>5.818903602513646</v>
+        <v>9.869522615986364</v>
       </c>
       <c r="D24">
-        <v>15.19992713123759</v>
+        <v>13.87265208403195</v>
       </c>
       <c r="E24">
-        <v>16.61605821281285</v>
+        <v>14.98374353477474</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>33.53801430818323</v>
+        <v>25.16297383764145</v>
       </c>
       <c r="H24">
-        <v>15.4866968020464</v>
+        <v>9.251018197603175</v>
       </c>
       <c r="I24">
-        <v>22.14407090912566</v>
+        <v>13.32386003102956</v>
       </c>
       <c r="J24">
-        <v>9.324127360827548</v>
+        <v>6.239751364826857</v>
       </c>
       <c r="K24">
-        <v>10.77652001464104</v>
+        <v>14.67005867437375</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.21444936514543</v>
+        <v>15.56082837867098</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.37550461830322</v>
+        <v>14.88893421887095</v>
       </c>
       <c r="C25">
-        <v>5.405085535879191</v>
+        <v>9.006053576204282</v>
       </c>
       <c r="D25">
-        <v>15.04431940957542</v>
+        <v>12.90123071733173</v>
       </c>
       <c r="E25">
-        <v>16.45754612330666</v>
+        <v>13.94594095481011</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>33.67652058491199</v>
+        <v>24.53883468283347</v>
       </c>
       <c r="H25">
-        <v>15.57426063273795</v>
+        <v>9.358812878289459</v>
       </c>
       <c r="I25">
-        <v>22.31804561025305</v>
+        <v>13.65623775136809</v>
       </c>
       <c r="J25">
-        <v>9.325325974450042</v>
+        <v>6.034703678375979</v>
       </c>
       <c r="K25">
-        <v>10.35145139510756</v>
+        <v>13.42808394395079</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.35388428864547</v>
+        <v>15.55613089158063</v>
       </c>
     </row>
   </sheetData>
